--- a/GPAI WorkHours.xlsx
+++ b/GPAI WorkHours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pourr\Repos\GPAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00908E5-843D-4402-9586-D41393F2D962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF963B5-C028-42A9-8C91-D4412FA81054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11D536E5-1227-4FDA-8595-B6DCF5253500}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>working with TFS on clustering and initiatives properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting with the GPAI group and TFS </t>
+  </si>
+  <si>
+    <t>15/8/2021</t>
   </si>
 </sst>
 </file>
@@ -128,13 +137,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,97 +471,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71381D77-B251-4573-B924-BF8F45854CE7}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4">
         <v>44228</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4">
         <v>44287</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5">
         <f>SUM(C2:C3)</f>
         <v>20</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>38869</v>
-      </c>
-      <c r="C8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6">
+        <v>44348</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>39234</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6">
+        <v>44348</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6">
+        <v>44417</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
